--- a/daiagnosis_rawdata.xlsx
+++ b/daiagnosis_rawdata.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agoujun/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agoujun/Desktop/Question/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8801F52-4D6F-C94E-ABBD-C677315252F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86A13BD-864D-1A4E-A5D7-7C47FF3983CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="体質診断質問" sheetId="2" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">体質診断質問!$A$1:$G$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$G$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -481,6 +481,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -488,6 +489,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック Light"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="major"/>
     </font>
@@ -496,6 +498,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -892,7 +895,7 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD38"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20"/>

--- a/daiagnosis_rawdata.xlsx
+++ b/daiagnosis_rawdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agoujun/Desktop/Question/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86A13BD-864D-1A4E-A5D7-7C47FF3983CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFD5BE6-1D72-DA4F-8B1A-0B7E9D23516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14120" yWindow="500" windowWidth="14440" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="138">
   <si>
     <t>カテゴリー</t>
   </si>
@@ -50,54 +50,15 @@
     <t>体型</t>
   </si>
   <si>
-    <t>体つき・快活さ・エネルギー</t>
-  </si>
-  <si>
-    <t>やせ型・エネルギーが少ない</t>
-  </si>
-  <si>
-    <t>中間的な体型・エネルギーも普通</t>
-  </si>
-  <si>
-    <t>がっちり型・エネルギーにあふれている</t>
-  </si>
-  <si>
     <t>骨格・体型</t>
   </si>
   <si>
-    <t>やせ型で背が高い、もしくは、やせ型で背が低い</t>
-  </si>
-  <si>
-    <t>いわゆる中肉中背</t>
-  </si>
-  <si>
-    <t>背が低くて、がっちりしている</t>
-  </si>
-  <si>
     <t>骨の見え方</t>
   </si>
   <si>
-    <t>鎖骨、くるぶしなどの骨の突出部が目立つ</t>
-  </si>
-  <si>
-    <t>骨の突出部が見える</t>
-  </si>
-  <si>
-    <t>骨の突出部が見えない</t>
-  </si>
-  <si>
     <t>皮下静脈</t>
   </si>
   <si>
-    <t>腕などの静脈が目立つ</t>
-  </si>
-  <si>
-    <t>わずかに見える</t>
-  </si>
-  <si>
-    <t>見えない</t>
-  </si>
-  <si>
     <t>皮下脂肪</t>
   </si>
   <si>
@@ -116,21 +77,9 @@
     <t>水分バランス</t>
   </si>
   <si>
-    <t>水分バランスが変化しやすい</t>
-  </si>
-  <si>
-    <t>水分を欲する</t>
-  </si>
-  <si>
-    <t>バランスがよい</t>
-  </si>
-  <si>
     <t>免疫</t>
   </si>
   <si>
-    <t>弱い</t>
-  </si>
-  <si>
     <t>強い</t>
   </si>
   <si>
@@ -143,180 +92,60 @@
     <t>睡眠</t>
   </si>
   <si>
-    <t>浅く、目覚めやすい、睡眠不足になりがち</t>
-  </si>
-  <si>
-    <t>普通だが、ある程度熟睡できる</t>
-  </si>
-  <si>
-    <t>深く、非常によく眠れる</t>
-  </si>
-  <si>
     <t>反応しやすい刺激</t>
   </si>
   <si>
-    <t>寒さ、乾燥</t>
-  </si>
-  <si>
     <t>暑さ</t>
   </si>
   <si>
-    <t>寒さ、湿度</t>
-  </si>
-  <si>
     <t>汗</t>
   </si>
   <si>
-    <t>汗をかきづらく、匂いがない</t>
-  </si>
-  <si>
-    <t>汗が多く、匂いが強い</t>
-  </si>
-  <si>
-    <t>汗の量は普通で、匂いはない</t>
-  </si>
-  <si>
     <t>体の部位</t>
   </si>
   <si>
     <t>体重の変化</t>
   </si>
   <si>
-    <t>体重が増えづらい</t>
-  </si>
-  <si>
-    <t>変化が少ない</t>
-  </si>
-  <si>
     <t>増えやすい</t>
   </si>
   <si>
     <t>皮膚</t>
   </si>
   <si>
-    <t>乾燥、カサカサしている</t>
-  </si>
-  <si>
-    <t>しっとり、やわらかい</t>
-  </si>
-  <si>
-    <t>皮脂が多く、べたつきやすい</t>
-  </si>
-  <si>
     <t>髪の毛</t>
   </si>
   <si>
-    <t>少なくて乾燥</t>
-  </si>
-  <si>
-    <t>柔らかい髪質、少ない、乾燥、抜けやすい</t>
-  </si>
-  <si>
-    <t>豊富でなめらか、柔らかい髪質。太くしっかりした毛根</t>
-  </si>
-  <si>
     <t>歯</t>
   </si>
   <si>
-    <t>歯並びがあまりよくなく、歯の大きさが不揃い</t>
-  </si>
-  <si>
-    <t>つやがあり、適度な大きさ、黄色がかっている</t>
-  </si>
-  <si>
-    <t>歯が強く、白い</t>
-  </si>
-  <si>
     <t>まつ毛</t>
   </si>
   <si>
-    <t>細くて少ない</t>
-  </si>
-  <si>
-    <t>茶色がかっている</t>
-  </si>
-  <si>
     <t>長く太い</t>
   </si>
   <si>
     <t>鼻</t>
   </si>
   <si>
-    <t>鼻すじが細く、鼻の先が乾燥している</t>
-  </si>
-  <si>
-    <t>鼻の形が普通。鼻の先が若干湿っている</t>
-  </si>
-  <si>
-    <t>鼻が大きく、鼻の先が皮脂でオイリー</t>
-  </si>
-  <si>
-    <t>唇</t>
-  </si>
-  <si>
-    <t>かさついていて唇が細い。黒ずんでいる</t>
-  </si>
-  <si>
-    <t>赤みががっていて艶があり、湿っている</t>
-  </si>
-  <si>
-    <t>唇が広く、ピンク色、もしくは白っぽい色合い</t>
-  </si>
-  <si>
     <t>胸部と肋骨</t>
   </si>
   <si>
-    <t>肋骨が浮いていて、胸部のサイズが小さい</t>
-  </si>
-  <si>
-    <t>一般的な胸部のサイズ</t>
-  </si>
-  <si>
-    <t>胸部が大きく、皮下脂肪で覆われている</t>
-  </si>
-  <si>
     <t>消化</t>
   </si>
   <si>
     <t>排泄</t>
   </si>
   <si>
-    <t>不規則で便秘がち</t>
-  </si>
-  <si>
-    <t>柔らかく、ゆるい</t>
-  </si>
-  <si>
-    <t>規則正しく、形も一定</t>
-  </si>
-  <si>
     <t>運動</t>
   </si>
   <si>
     <t>持久力</t>
   </si>
   <si>
-    <t>乏しい</t>
-  </si>
-  <si>
-    <t>適度</t>
-  </si>
-  <si>
-    <t>十分ある</t>
-  </si>
-  <si>
     <t>活動性</t>
   </si>
   <si>
-    <t>アクティブであるが一貫性が乏しく、長続きしない</t>
-  </si>
-  <si>
-    <t>無駄がなく、計画性をもって動く</t>
-  </si>
-  <si>
-    <t>ゆっくりであるが、規則的である</t>
-  </si>
-  <si>
     <t>俊敏性</t>
   </si>
   <si>
@@ -341,15 +170,9 @@
     <t>記憶力がよく、明瞭に覚えている</t>
   </si>
   <si>
-    <t>記憶力がよく、長期で覚えている</t>
-  </si>
-  <si>
     <t>話し方</t>
   </si>
   <si>
-    <t>一貫性がなく、整合性が乏しい</t>
-  </si>
-  <si>
     <t>説得力があり、無駄がなく、早い</t>
   </si>
   <si>
@@ -368,9 +191,6 @@
     <t>甘い、苦い、渋いのを好む</t>
   </si>
   <si>
-    <t>苦甘い、刺激的なものを好む</t>
-  </si>
-  <si>
     <t>好みの温度帯</t>
   </si>
   <si>
@@ -384,9 +204,6 @@
   </si>
   <si>
     <t>食事量</t>
-  </si>
-  <si>
-    <t>規則的でない</t>
   </si>
   <si>
     <t>食べ過ぎる</t>
@@ -464,12 +281,194 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>背が高く痩せている</t>
+  </si>
+  <si>
+    <t>鎖骨やくるぶしなど、骨の出っ張りが目立つ</t>
+  </si>
+  <si>
+    <t>腕などの血管が目立つ</t>
+  </si>
+  <si>
+    <t>その時によって変わる</t>
+  </si>
+  <si>
+    <t>病気にかかりやすい</t>
+  </si>
+  <si>
+    <t>浅く、目覚めやすい</t>
+  </si>
+  <si>
+    <t>寒さ</t>
+  </si>
+  <si>
+    <t>かきにくい</t>
+  </si>
+  <si>
+    <t>冷え性</t>
+  </si>
+  <si>
+    <t>はい</t>
+  </si>
+  <si>
+    <t>ほてり/のぼせ</t>
+  </si>
+  <si>
+    <t>いいえ</t>
+  </si>
+  <si>
+    <t>増えにくい</t>
+  </si>
+  <si>
+    <t>乾燥している</t>
+  </si>
+  <si>
+    <t>細い</t>
+  </si>
+  <si>
+    <t>歯並びが悪く、歯の大きさが不揃い</t>
+  </si>
+  <si>
+    <t>細く少ない</t>
+  </si>
+  <si>
+    <t>鼻筋が細く小さい</t>
+  </si>
+  <si>
+    <t>鼻の頭が乾燥している</t>
+  </si>
+  <si>
+    <t>肋骨が浮き出ていて、小さい</t>
+  </si>
+  <si>
+    <t>便秘がち</t>
+  </si>
+  <si>
+    <t>消化全体</t>
+  </si>
+  <si>
+    <t>あまりよくない</t>
+  </si>
+  <si>
+    <t>あまりない</t>
+  </si>
+  <si>
+    <t>運動はあまりしない</t>
+  </si>
+  <si>
+    <t>日々変化する</t>
+  </si>
+  <si>
+    <t>中肉中背</t>
+  </si>
+  <si>
+    <t>骨の出っ張りは少し見える</t>
+  </si>
+  <si>
+    <t>血管は少し見える</t>
+  </si>
+  <si>
+    <t>水分をたくさん飲む</t>
+  </si>
+  <si>
+    <t>かきやすい</t>
+  </si>
+  <si>
+    <t>あまり変わらない</t>
+  </si>
+  <si>
+    <t>しっとりしている</t>
+  </si>
+  <si>
+    <t>普通で柔らかい</t>
+  </si>
+  <si>
+    <t>どちらでもない</t>
+  </si>
+  <si>
+    <t>潤っている</t>
+  </si>
+  <si>
+    <t>柔らかく、下痢気味</t>
+  </si>
+  <si>
+    <t>適度に運動する</t>
+  </si>
+  <si>
+    <t>背が低くがっちりしている</t>
+  </si>
+  <si>
+    <t>骨の出っ張りはあまり見えない</t>
+  </si>
+  <si>
+    <t>血管は見えにくい</t>
+  </si>
+  <si>
+    <t>バランスが良い（変化が少ない）</t>
+  </si>
+  <si>
+    <t>病気にかかりにくい</t>
+  </si>
+  <si>
+    <t>深く、よく眠れる</t>
+  </si>
+  <si>
+    <t>少し</t>
+  </si>
+  <si>
+    <t>オイリー（脂性）</t>
+  </si>
+  <si>
+    <t>太い</t>
+  </si>
+  <si>
+    <t>歯並びがよく、丈夫</t>
+  </si>
+  <si>
+    <t>大きい</t>
+  </si>
+  <si>
+    <t>鼻の頭が脂っぽい</t>
+  </si>
+  <si>
+    <t>時によって変化する</t>
+  </si>
+  <si>
+    <t>大きく、脂肪で覆われている</t>
+  </si>
+  <si>
+    <t>規則正しく、安定している</t>
+  </si>
+  <si>
+    <t>良い</t>
+  </si>
+  <si>
+    <t>ある</t>
+  </si>
+  <si>
+    <t>よく運動する</t>
+  </si>
+  <si>
+    <t>覚えるの時間がかかるが、長期で覚えている</t>
+  </si>
+  <si>
+    <t>刺激的なものを好む</t>
+  </si>
+  <si>
+    <t>唇</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>一貫性がなく、整合性が乏しい</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +516,14 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -580,7 +587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,9 +606,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -613,6 +617,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,8 +907,8 @@
   </sheetPr>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20"/>
@@ -917,664 +930,724 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>138</v>
+      <c r="C1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="52" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="8"/>
+      <c r="C2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="52" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="8"/>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="52" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="52" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="8"/>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="52" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="52" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="52" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="52" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="52" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="52" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="52" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="52" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="52" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="52" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" ht="52" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="52" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="52" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" ht="52" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="52" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" ht="52" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="52" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" ht="52" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="52" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>92</v>
+        <v>30</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="52" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" ht="52" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="52" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" ht="52" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H28" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" ht="52" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="52" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H30" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" ht="52" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" ht="52" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H32" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" ht="52" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" ht="38">
+      <c r="A34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="7"/>
     </row>
     <row r="52" ht="34.5" customHeight="1"/>
     <row r="54" ht="20.25" customHeight="1"/>
